--- a/data.veg/plot.vars.xlsx
+++ b/data.veg/plot.vars.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santorui/Documents/GitHub/FinlandAnalysis/data.veg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5FA0B47-0FA0-B746-850D-5059B8D5C248}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8A6C89C4-E383-E649-A5F6-FA6F3E92AEC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="600" windowWidth="43260" windowHeight="26760"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="50260" windowHeight="26760" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="plot.vars" sheetId="1" r:id="rId1"/>
+    <sheet name="First Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Tests table 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Tests table 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="110">
   <si>
     <t>ForestID</t>
   </si>
@@ -317,6 +319,39 @@
   </si>
   <si>
     <t>MN % 2019</t>
+  </si>
+  <si>
+    <t>percent.alfa.2017</t>
+  </si>
+  <si>
+    <t>percent.abund.2017</t>
+  </si>
+  <si>
+    <t>abund.all2017</t>
+  </si>
+  <si>
+    <t>abund.inv 2017</t>
+  </si>
+  <si>
+    <t>alpha.all.2017</t>
+  </si>
+  <si>
+    <t>alpha.inv.2017</t>
+  </si>
+  <si>
+    <t>Misterios_Negros</t>
+  </si>
+  <si>
+    <t>delta.alpha</t>
+  </si>
+  <si>
+    <t>delta.abund</t>
+  </si>
+  <si>
+    <t>delta.percent.alpha</t>
+  </si>
+  <si>
+    <t>delta.percent.abund</t>
   </si>
 </sst>
 </file>
@@ -1302,10 +1337,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="U7" sqref="U7"/>
+      <selection pane="topRight" activeCell="A27" sqref="A1:V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1562,11 +1597,11 @@
         <v>-1</v>
       </c>
       <c r="N3" s="7">
-        <f t="shared" ref="N3:N40" si="0">K3/I3*100</f>
+        <f>K3/I3*100</f>
         <v>20</v>
       </c>
       <c r="O3" s="7">
-        <f t="shared" ref="O3:O27" si="1">L3/J3*100</f>
+        <f>L3/J3*100</f>
         <v>0</v>
       </c>
       <c r="P3" s="7">
@@ -1582,15 +1617,15 @@
         <v>0</v>
       </c>
       <c r="T3" s="7">
-        <f t="shared" ref="T3:T27" si="2">S3-R3</f>
+        <f t="shared" ref="T3:T27" si="0">S3-R3</f>
         <v>-3</v>
       </c>
       <c r="U3" s="11">
-        <f t="shared" ref="U3:U40" si="3">R3/P3*100</f>
+        <f t="shared" ref="U3:U40" si="1">R3/P3*100</f>
         <v>20</v>
       </c>
       <c r="V3" s="11">
-        <f t="shared" ref="V3:V27" si="4">S3/Q3*100</f>
+        <f t="shared" ref="V3:V27" si="2">S3/Q3*100</f>
         <v>0</v>
       </c>
       <c r="W3" s="4"/>
@@ -1648,11 +1683,11 @@
         <v>-1</v>
       </c>
       <c r="N4" s="7">
-        <f t="shared" si="0"/>
+        <f>K4/I4*100</f>
         <v>25</v>
       </c>
       <c r="O4" s="7">
-        <f t="shared" si="1"/>
+        <f>L4/J4*100</f>
         <v>0</v>
       </c>
       <c r="P4" s="7">
@@ -1668,15 +1703,15 @@
         <v>0</v>
       </c>
       <c r="T4" s="7">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="U4" s="11">
+        <f t="shared" si="1"/>
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="V4" s="11">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="U4" s="11">
-        <f t="shared" si="3"/>
-        <v>5.8823529411764701</v>
-      </c>
-      <c r="V4" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W4" s="4"/>
@@ -1734,11 +1769,11 @@
         <v>-1</v>
       </c>
       <c r="N5" s="7">
-        <f t="shared" si="0"/>
+        <f>K5/I5*100</f>
         <v>11.76470588235294</v>
       </c>
       <c r="O5" s="7">
-        <f t="shared" si="1"/>
+        <f>L5/J5*100</f>
         <v>6.666666666666667</v>
       </c>
       <c r="P5" s="7">
@@ -1754,15 +1789,15 @@
         <v>9</v>
       </c>
       <c r="T5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="11">
+        <f t="shared" si="1"/>
+        <v>11.25</v>
+      </c>
+      <c r="V5" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="11">
-        <f t="shared" si="3"/>
-        <v>11.25</v>
-      </c>
-      <c r="V5" s="11">
-        <f t="shared" si="4"/>
         <v>10.227272727272728</v>
       </c>
       <c r="W5" s="4">
@@ -1821,11 +1856,11 @@
         <v>-1</v>
       </c>
       <c r="N6" s="7">
-        <f t="shared" si="0"/>
+        <f>K6/I6*100</f>
         <v>18.181818181818183</v>
       </c>
       <c r="O6" s="7">
-        <f t="shared" si="1"/>
+        <f>L6/J6*100</f>
         <v>10</v>
       </c>
       <c r="P6" s="7">
@@ -1841,15 +1876,15 @@
         <v>12</v>
       </c>
       <c r="T6" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="U6" s="11">
+        <f t="shared" si="1"/>
+        <v>19.047619047619047</v>
+      </c>
+      <c r="V6" s="11">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="U6" s="11">
-        <f t="shared" si="3"/>
-        <v>19.047619047619047</v>
-      </c>
-      <c r="V6" s="11">
-        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="W6" s="4"/>
@@ -1908,11 +1943,11 @@
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <f t="shared" si="0"/>
+        <f>K7/I7*100</f>
         <v>10</v>
       </c>
       <c r="O7" s="7">
-        <f t="shared" si="1"/>
+        <f>L7/J7*100</f>
         <v>16.666666666666664</v>
       </c>
       <c r="P7" s="7">
@@ -1928,15 +1963,15 @@
         <v>8</v>
       </c>
       <c r="T7" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U7" s="11">
+        <f t="shared" si="1"/>
+        <v>14.634146341463413</v>
+      </c>
+      <c r="V7" s="11">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="U7" s="11">
-        <f t="shared" si="3"/>
-        <v>14.634146341463413</v>
-      </c>
-      <c r="V7" s="11">
-        <f t="shared" si="4"/>
         <v>14.285714285714285</v>
       </c>
       <c r="W7" s="4"/>
@@ -1995,11 +2030,11 @@
         <v>-2</v>
       </c>
       <c r="N8" s="7">
-        <f t="shared" si="0"/>
+        <f>K8/I8*100</f>
         <v>18.181818181818183</v>
       </c>
       <c r="O8" s="7">
-        <f t="shared" si="1"/>
+        <f>L8/J8*100</f>
         <v>0</v>
       </c>
       <c r="P8" s="7">
@@ -2015,15 +2050,15 @@
         <v>0</v>
       </c>
       <c r="T8" s="7">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="U8" s="11">
+        <f t="shared" si="1"/>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="V8" s="11">
         <f t="shared" si="2"/>
-        <v>-8</v>
-      </c>
-      <c r="U8" s="11">
-        <f t="shared" si="3"/>
-        <v>22.222222222222221</v>
-      </c>
-      <c r="V8" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W8" s="4">
@@ -2081,11 +2116,11 @@
         <v>1</v>
       </c>
       <c r="N9" s="7">
-        <f t="shared" si="0"/>
+        <f>K9/I9*100</f>
         <v>0</v>
       </c>
       <c r="O9" s="7">
-        <f t="shared" si="1"/>
+        <f>L9/J9*100</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="P9" s="7">
@@ -2101,15 +2136,15 @@
         <v>6</v>
       </c>
       <c r="T9" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="U9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="11">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="U9" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="11">
-        <f t="shared" si="4"/>
         <v>17.142857142857142</v>
       </c>
       <c r="W9" s="4"/>
@@ -2167,11 +2202,11 @@
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <f t="shared" si="0"/>
+        <f>K10/I10*100</f>
         <v>0</v>
       </c>
       <c r="O10" s="7">
-        <f t="shared" si="1"/>
+        <f>L10/J10*100</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="P10" s="7">
@@ -2187,15 +2222,15 @@
         <v>6</v>
       </c>
       <c r="T10" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="U10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="11">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="U10" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="11">
-        <f t="shared" si="4"/>
         <v>17.142857142857142</v>
       </c>
       <c r="W10" s="4"/>
@@ -2253,11 +2288,11 @@
         <v>0</v>
       </c>
       <c r="N11" s="7">
-        <f t="shared" si="0"/>
+        <f>K11/I11*100</f>
         <v>0</v>
       </c>
       <c r="O11" s="7">
-        <f t="shared" si="1"/>
+        <f>L11/J11*100</f>
         <v>0</v>
       </c>
       <c r="P11" s="7">
@@ -2273,15 +2308,15 @@
         <v>0</v>
       </c>
       <c r="T11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W11" s="4">
@@ -2338,11 +2373,11 @@
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <f t="shared" si="0"/>
+        <f>K12/I12*100</f>
         <v>0</v>
       </c>
       <c r="O12" s="7">
-        <f t="shared" si="1"/>
+        <f>L12/J12*100</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="P12" s="7">
@@ -2358,15 +2393,15 @@
         <v>1</v>
       </c>
       <c r="T12" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="11">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U12" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="11">
-        <f t="shared" si="4"/>
         <v>1.9607843137254901</v>
       </c>
       <c r="W12" s="4"/>
@@ -2424,11 +2459,11 @@
         <v>0</v>
       </c>
       <c r="N13" s="7">
-        <f t="shared" si="0"/>
+        <f>K13/I13*100</f>
         <v>11.111111111111111</v>
       </c>
       <c r="O13" s="7">
-        <f t="shared" si="1"/>
+        <f>L13/J13*100</f>
         <v>11.111111111111111</v>
       </c>
       <c r="P13" s="7">
@@ -2444,11 +2479,11 @@
         <v>6</v>
       </c>
       <c r="T13" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U13" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11.627906976744185</v>
       </c>
       <c r="V13" s="11">
@@ -2511,11 +2546,11 @@
         <v>1</v>
       </c>
       <c r="N14" s="7">
-        <f t="shared" si="0"/>
+        <f>K14/I14*100</f>
         <v>0</v>
       </c>
       <c r="O14" s="7">
-        <f t="shared" si="1"/>
+        <f>L14/J14*100</f>
         <v>7.6923076923076925</v>
       </c>
       <c r="P14" s="7">
@@ -2531,15 +2566,15 @@
         <v>1</v>
       </c>
       <c r="T14" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U14" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="11">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="U14" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="11">
-        <f t="shared" si="4"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="W14" s="4"/>
@@ -2600,11 +2635,11 @@
         <v>0</v>
       </c>
       <c r="N15" s="7">
-        <f t="shared" si="0"/>
+        <f>K15/I15*100</f>
         <v>0</v>
       </c>
       <c r="O15" s="7">
-        <f t="shared" si="1"/>
+        <f>L15/J15*100</f>
         <v>0</v>
       </c>
       <c r="P15" s="7">
@@ -2620,15 +2655,15 @@
         <v>0</v>
       </c>
       <c r="T15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W15" s="4">
@@ -2691,11 +2726,11 @@
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <f t="shared" si="0"/>
+        <f>K16/I16*100</f>
         <v>0</v>
       </c>
       <c r="O16" s="7">
-        <f t="shared" si="1"/>
+        <f>L16/J16*100</f>
         <v>14.285714285714285</v>
       </c>
       <c r="P16" s="7">
@@ -2711,15 +2746,15 @@
         <v>6</v>
       </c>
       <c r="T16" s="7">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="U16" s="11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="V16" s="11">
         <f t="shared" si="2"/>
-        <v>-6</v>
-      </c>
-      <c r="U16" s="11">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="V16" s="11">
-        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="W16" s="4"/>
@@ -2776,11 +2811,11 @@
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <f t="shared" si="0"/>
+        <f>K17/I17*100</f>
         <v>0</v>
       </c>
       <c r="O17" s="7">
-        <f t="shared" si="1"/>
+        <f>L17/J17*100</f>
         <v>14.285714285714285</v>
       </c>
       <c r="P17" s="7">
@@ -2796,15 +2831,15 @@
         <v>2</v>
       </c>
       <c r="T17" s="7">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="U17" s="11">
+        <f t="shared" si="1"/>
+        <v>42.105263157894733</v>
+      </c>
+      <c r="V17" s="11">
         <f t="shared" si="2"/>
-        <v>-6</v>
-      </c>
-      <c r="U17" s="11">
-        <f t="shared" si="3"/>
-        <v>42.105263157894733</v>
-      </c>
-      <c r="V17" s="11">
-        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
       <c r="W17" s="4"/>
@@ -2861,11 +2896,11 @@
         <v>1</v>
       </c>
       <c r="N18" s="7">
-        <f t="shared" si="0"/>
+        <f>K18/I18*100</f>
         <v>0</v>
       </c>
       <c r="O18" s="7">
-        <f t="shared" si="1"/>
+        <f>L18/J18*100</f>
         <v>12.5</v>
       </c>
       <c r="P18" s="7">
@@ -2881,15 +2916,15 @@
         <v>2</v>
       </c>
       <c r="T18" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="11">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="U18" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="11">
-        <f t="shared" si="4"/>
         <v>4.2553191489361701</v>
       </c>
       <c r="W18" s="4">
@@ -2945,35 +2980,35 @@
         <v>0</v>
       </c>
       <c r="N19" s="7">
+        <f>K19/I19*100</f>
+        <v>50</v>
+      </c>
+      <c r="O19" s="7">
+        <f>L19/J19*100</f>
+        <v>50</v>
+      </c>
+      <c r="P19" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>4</v>
+      </c>
+      <c r="R19" s="7">
+        <v>1</v>
+      </c>
+      <c r="S19" s="7">
+        <v>3</v>
+      </c>
+      <c r="T19" s="7">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="O19" s="7">
+        <v>2</v>
+      </c>
+      <c r="U19" s="11">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="P19" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>4</v>
-      </c>
-      <c r="R19" s="7">
-        <v>1</v>
-      </c>
-      <c r="S19" s="7">
-        <v>3</v>
-      </c>
-      <c r="T19" s="7">
+      <c r="V19" s="11">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="U19" s="11">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="V19" s="11">
-        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="W19" s="4"/>
@@ -3030,11 +3065,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="7">
-        <f t="shared" si="0"/>
+        <f>K20/I20*100</f>
         <v>0</v>
       </c>
       <c r="O20" s="7">
-        <f t="shared" si="1"/>
+        <f>L20/J20*100</f>
         <v>0</v>
       </c>
       <c r="P20" s="7">
@@ -3050,15 +3085,15 @@
         <v>0</v>
       </c>
       <c r="T20" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W20" s="4"/>
@@ -3113,11 +3148,11 @@
         <v>0</v>
       </c>
       <c r="N21" s="7">
-        <f t="shared" si="0"/>
+        <f>K21/I21*100</f>
         <v>0</v>
       </c>
       <c r="O21" s="7">
-        <f t="shared" si="1"/>
+        <f>L21/J21*100</f>
         <v>0</v>
       </c>
       <c r="P21" s="7">
@@ -3133,15 +3168,15 @@
         <v>0</v>
       </c>
       <c r="T21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W21" s="4">
@@ -3198,11 +3233,11 @@
         <v>0</v>
       </c>
       <c r="N22" s="7">
-        <f t="shared" si="0"/>
+        <f>K22/I22*100</f>
         <v>0</v>
       </c>
       <c r="O22" s="7">
-        <f t="shared" si="1"/>
+        <f>L22/J22*100</f>
         <v>0</v>
       </c>
       <c r="P22" s="7">
@@ -3218,15 +3253,15 @@
         <v>0</v>
       </c>
       <c r="T22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W22" s="4"/>
@@ -3283,11 +3318,11 @@
         <v>0</v>
       </c>
       <c r="N23" s="7">
-        <f t="shared" si="0"/>
+        <f>K23/I23*100</f>
         <v>0</v>
       </c>
       <c r="O23" s="7">
-        <f t="shared" si="1"/>
+        <f>L23/J23*100</f>
         <v>0</v>
       </c>
       <c r="P23" s="7">
@@ -3303,15 +3338,15 @@
         <v>0</v>
       </c>
       <c r="T23" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W23" s="4"/>
@@ -3368,11 +3403,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="7">
-        <f t="shared" si="0"/>
+        <f>K24/I24*100</f>
         <v>0</v>
       </c>
       <c r="O24" s="7">
-        <f t="shared" si="1"/>
+        <f>L24/J24*100</f>
         <v>0</v>
       </c>
       <c r="P24" s="7">
@@ -3388,15 +3423,15 @@
         <v>0</v>
       </c>
       <c r="T24" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U24" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W24" s="4">
@@ -3452,11 +3487,11 @@
         <v>0</v>
       </c>
       <c r="N25" s="7">
-        <f t="shared" si="0"/>
+        <f>K25/I25*100</f>
         <v>0</v>
       </c>
       <c r="O25" s="7">
-        <f t="shared" si="1"/>
+        <f>L25/J25*100</f>
         <v>0</v>
       </c>
       <c r="P25" s="7">
@@ -3472,15 +3507,15 @@
         <v>0</v>
       </c>
       <c r="T25" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V25" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W25" s="4"/>
@@ -3536,11 +3571,11 @@
         <v>0</v>
       </c>
       <c r="N26" s="7">
-        <f t="shared" si="0"/>
+        <f>K26/I26*100</f>
         <v>0</v>
       </c>
       <c r="O26" s="7">
-        <f t="shared" si="1"/>
+        <f>L26/J26*100</f>
         <v>0</v>
       </c>
       <c r="P26" s="7">
@@ -3556,15 +3591,15 @@
         <v>0</v>
       </c>
       <c r="T26" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W26" s="4"/>
@@ -3620,11 +3655,11 @@
         <v>0</v>
       </c>
       <c r="N27" s="7">
-        <f t="shared" si="0"/>
+        <f>K27/I27*100</f>
         <v>0</v>
       </c>
       <c r="O27" s="7">
-        <f t="shared" si="1"/>
+        <f>L27/J27*100</f>
         <v>0</v>
       </c>
       <c r="P27" s="7">
@@ -3640,15 +3675,15 @@
         <v>0</v>
       </c>
       <c r="T27" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="11">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W27" s="8"/>
@@ -3695,7 +3730,7 @@
         <v>3</v>
       </c>
       <c r="N28" s="7">
-        <f t="shared" si="0"/>
+        <f>K28/I28*100</f>
         <v>15.789473684210526</v>
       </c>
       <c r="P28" s="7">
@@ -3705,7 +3740,7 @@
         <v>25</v>
       </c>
       <c r="U28" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>35.714285714285715</v>
       </c>
       <c r="W28" s="7">
@@ -3713,23 +3748,23 @@
         <v>33.472222222222221</v>
       </c>
       <c r="X28" s="7">
-        <f t="shared" ref="X28:AB28" si="5">SUM(X2:X27)</f>
+        <f t="shared" ref="X28:AB28" si="3">SUM(X2:X27)</f>
         <v>139.04761904761904</v>
       </c>
       <c r="Y28" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>74.249669417278795</v>
       </c>
       <c r="Z28" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14.482591876208899</v>
       </c>
       <c r="AA28" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>150.53221288515405</v>
       </c>
       <c r="AB28" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>55.556478405315616</v>
       </c>
     </row>
@@ -3765,7 +3800,7 @@
         <v>2</v>
       </c>
       <c r="N29" s="7">
-        <f t="shared" si="0"/>
+        <f>K29/I29*100</f>
         <v>16.666666666666664</v>
       </c>
       <c r="P29" s="7">
@@ -3774,8 +3809,12 @@
       <c r="R29" s="7">
         <v>5</v>
       </c>
+      <c r="T29" s="7">
+        <f>SUM(T2:T27)</f>
+        <v>1</v>
+      </c>
       <c r="U29" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -3811,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="7">
-        <f t="shared" si="0"/>
+        <f>K30/I30*100</f>
         <v>0</v>
       </c>
       <c r="P30" s="7">
@@ -3821,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V30" s="11" t="s">
@@ -3832,23 +3871,23 @@
         <v>33.472222222222221</v>
       </c>
       <c r="X30" s="7">
-        <f t="shared" ref="X30:AB30" si="6">SUM(X2:X14)</f>
+        <f t="shared" ref="X30:AB30" si="4">SUM(X2:X14)</f>
         <v>39.047619047619051</v>
       </c>
       <c r="Y30" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>32.14440625938407</v>
       </c>
       <c r="Z30" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>10.227272727272728</v>
       </c>
       <c r="AA30" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>45.53221288515406</v>
       </c>
       <c r="AB30" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>43.056478405315616</v>
       </c>
     </row>
@@ -3884,7 +3923,7 @@
         <v>2</v>
       </c>
       <c r="N31" s="7">
-        <f t="shared" si="0"/>
+        <f>K31/I31*100</f>
         <v>13.333333333333334</v>
       </c>
       <c r="P31" s="7">
@@ -3894,7 +3933,7 @@
         <v>24</v>
       </c>
       <c r="U31" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>25.263157894736842</v>
       </c>
       <c r="V31" s="11" t="s">
@@ -3905,23 +3944,23 @@
         <v>0</v>
       </c>
       <c r="X31" s="7">
-        <f t="shared" ref="X31:AB31" si="7">SUM(X15:X27)</f>
+        <f t="shared" ref="X31:AB31" si="5">SUM(X15:X27)</f>
         <v>100</v>
       </c>
       <c r="Y31" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>42.105263157894733</v>
       </c>
       <c r="Z31" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4.2553191489361701</v>
       </c>
       <c r="AA31" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>105</v>
       </c>
       <c r="AB31" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
     </row>
@@ -3957,7 +3996,7 @@
         <v>3</v>
       </c>
       <c r="N32" s="7">
-        <f t="shared" si="0"/>
+        <f>K32/I32*100</f>
         <v>21.428571428571427</v>
       </c>
       <c r="P32" s="7">
@@ -3967,7 +4006,7 @@
         <v>8</v>
       </c>
       <c r="U32" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13.114754098360656</v>
       </c>
     </row>
@@ -4003,7 +4042,7 @@
         <v>2</v>
       </c>
       <c r="N33" s="7">
-        <f t="shared" si="0"/>
+        <f>K33/I33*100</f>
         <v>18.181818181818183</v>
       </c>
       <c r="P33" s="7">
@@ -4013,7 +4052,7 @@
         <v>4</v>
       </c>
       <c r="U33" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7.6923076923076925</v>
       </c>
     </row>
@@ -4049,7 +4088,7 @@
         <v>4</v>
       </c>
       <c r="N34" s="7">
-        <f t="shared" si="0"/>
+        <f>K34/I34*100</f>
         <v>19.047619047619047</v>
       </c>
       <c r="P34" s="7">
@@ -4059,7 +4098,7 @@
         <v>20</v>
       </c>
       <c r="U34" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>25.316455696202532</v>
       </c>
     </row>
@@ -4095,7 +4134,7 @@
         <v>3</v>
       </c>
       <c r="N35" s="7">
-        <f t="shared" si="0"/>
+        <f>K35/I35*100</f>
         <v>33.333333333333329</v>
       </c>
       <c r="P35" s="7">
@@ -4105,7 +4144,7 @@
         <v>12</v>
       </c>
       <c r="U35" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>27.906976744186046</v>
       </c>
     </row>
@@ -4141,7 +4180,7 @@
         <v>2</v>
       </c>
       <c r="N36" s="7">
-        <f t="shared" si="0"/>
+        <f>K36/I36*100</f>
         <v>28.571428571428569</v>
       </c>
       <c r="P36" s="7">
@@ -4151,7 +4190,7 @@
         <v>7</v>
       </c>
       <c r="U36" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>38.888888888888893</v>
       </c>
     </row>
@@ -4187,7 +4226,7 @@
         <v>2</v>
       </c>
       <c r="N37" s="7">
-        <f t="shared" si="0"/>
+        <f>K37/I37*100</f>
         <v>10</v>
       </c>
       <c r="P37" s="7">
@@ -4197,7 +4236,7 @@
         <v>27</v>
       </c>
       <c r="U37" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>24.545454545454547</v>
       </c>
     </row>
@@ -4233,7 +4272,7 @@
         <v>2</v>
       </c>
       <c r="N38" s="7">
-        <f t="shared" si="0"/>
+        <f>K38/I38*100</f>
         <v>18.181818181818183</v>
       </c>
       <c r="P38" s="7">
@@ -4243,7 +4282,7 @@
         <v>20</v>
       </c>
       <c r="U38" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>26.315789473684209</v>
       </c>
     </row>
@@ -4279,7 +4318,7 @@
         <v>2</v>
       </c>
       <c r="N39" s="7">
-        <f t="shared" si="0"/>
+        <f>K39/I39*100</f>
         <v>14.285714285714285</v>
       </c>
       <c r="P39" s="7">
@@ -4289,7 +4328,7 @@
         <v>16</v>
       </c>
       <c r="U39" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -4325,7 +4364,7 @@
         <v>2</v>
       </c>
       <c r="N40" s="7">
-        <f t="shared" si="0"/>
+        <f>K40/I40*100</f>
         <v>15.384615384615385</v>
       </c>
       <c r="P40" s="7">
@@ -4335,7 +4374,7 @@
         <v>14</v>
       </c>
       <c r="U40" s="11">
-        <f t="shared" si="3"/>
+        <f>R40/P40*100</f>
         <v>22.950819672131146</v>
       </c>
     </row>
@@ -4364,6 +4403,26 @@
       <c r="H41" s="7">
         <v>0</v>
       </c>
+      <c r="I41" s="7">
+        <v>9</v>
+      </c>
+      <c r="K41" s="7">
+        <v>0</v>
+      </c>
+      <c r="N41" s="7">
+        <f t="shared" ref="N41:N66" si="6">K41/I41*100</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="7">
+        <v>40</v>
+      </c>
+      <c r="R41" s="7">
+        <v>0</v>
+      </c>
+      <c r="U41" s="11">
+        <f t="shared" ref="U41:U66" si="7">R41/P41*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -4390,6 +4449,26 @@
       <c r="H42" s="7">
         <v>0</v>
       </c>
+      <c r="I42" s="7">
+        <v>5</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="7">
+        <v>22</v>
+      </c>
+      <c r="R42" s="7">
+        <v>0</v>
+      </c>
+      <c r="U42" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -4416,6 +4495,26 @@
       <c r="H43" s="7">
         <v>0</v>
       </c>
+      <c r="I43" s="7">
+        <v>7</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="7">
+        <v>25</v>
+      </c>
+      <c r="R43" s="7">
+        <v>0</v>
+      </c>
+      <c r="U43" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -4442,6 +4541,26 @@
       <c r="H44" s="7">
         <v>0</v>
       </c>
+      <c r="I44" s="7">
+        <v>15</v>
+      </c>
+      <c r="K44" s="7">
+        <v>1</v>
+      </c>
+      <c r="N44" s="7">
+        <f t="shared" si="6"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="P44" s="7">
+        <v>88</v>
+      </c>
+      <c r="R44" s="7">
+        <v>9</v>
+      </c>
+      <c r="U44" s="11">
+        <f t="shared" si="7"/>
+        <v>10.227272727272728</v>
+      </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -4468,6 +4587,26 @@
       <c r="H45" s="7">
         <v>0</v>
       </c>
+      <c r="I45" s="7">
+        <v>10</v>
+      </c>
+      <c r="K45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="P45" s="7">
+        <v>48</v>
+      </c>
+      <c r="R45" s="7">
+        <v>12</v>
+      </c>
+      <c r="U45" s="11">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -4494,6 +4633,26 @@
       <c r="H46" s="7">
         <v>0</v>
       </c>
+      <c r="I46" s="7">
+        <v>12</v>
+      </c>
+      <c r="K46" s="7">
+        <v>2</v>
+      </c>
+      <c r="N46" s="7">
+        <f t="shared" si="6"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="P46" s="7">
+        <v>56</v>
+      </c>
+      <c r="R46" s="7">
+        <v>8</v>
+      </c>
+      <c r="U46" s="11">
+        <f t="shared" si="7"/>
+        <v>14.285714285714285</v>
+      </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -4520,6 +4679,26 @@
       <c r="H47" s="7">
         <v>0</v>
       </c>
+      <c r="I47" s="7">
+        <v>12</v>
+      </c>
+      <c r="K47" s="7">
+        <v>0</v>
+      </c>
+      <c r="N47" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="7">
+        <v>67</v>
+      </c>
+      <c r="R47" s="7">
+        <v>0</v>
+      </c>
+      <c r="U47" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -4546,8 +4725,28 @@
       <c r="H48" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" s="7">
+        <v>11</v>
+      </c>
+      <c r="K48" s="7">
+        <v>1</v>
+      </c>
+      <c r="N48" s="7">
+        <f t="shared" si="6"/>
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="P48" s="7">
+        <v>35</v>
+      </c>
+      <c r="R48" s="7">
+        <v>6</v>
+      </c>
+      <c r="U48" s="11">
+        <f t="shared" si="7"/>
+        <v>17.142857142857142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -4572,8 +4771,28 @@
       <c r="H49" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" s="7">
+        <v>11</v>
+      </c>
+      <c r="K49" s="7">
+        <v>1</v>
+      </c>
+      <c r="N49" s="7">
+        <f t="shared" si="6"/>
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="P49" s="7">
+        <v>35</v>
+      </c>
+      <c r="R49" s="7">
+        <v>6</v>
+      </c>
+      <c r="U49" s="11">
+        <f t="shared" si="7"/>
+        <v>17.142857142857142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -4598,8 +4817,28 @@
       <c r="H50" s="7">
         <v>0.14858599071209799</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" s="7">
+        <v>9</v>
+      </c>
+      <c r="K50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="7">
+        <v>70</v>
+      </c>
+      <c r="R50" s="7">
+        <v>0</v>
+      </c>
+      <c r="U50" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -4624,8 +4863,28 @@
       <c r="H51" s="7">
         <v>0.14858599071209799</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" s="7">
+        <v>11</v>
+      </c>
+      <c r="K51" s="7">
+        <v>1</v>
+      </c>
+      <c r="N51" s="7">
+        <f t="shared" si="6"/>
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="P51" s="7">
+        <v>51</v>
+      </c>
+      <c r="R51" s="7">
+        <v>1</v>
+      </c>
+      <c r="U51" s="11">
+        <f t="shared" si="7"/>
+        <v>1.9607843137254901</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -4650,8 +4909,28 @@
       <c r="H52" s="7">
         <v>0.14858599071209799</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" s="7">
+        <v>9</v>
+      </c>
+      <c r="K52" s="7">
+        <v>1</v>
+      </c>
+      <c r="N52" s="7">
+        <f t="shared" si="6"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="P52" s="7">
+        <v>48</v>
+      </c>
+      <c r="R52" s="7">
+        <v>6</v>
+      </c>
+      <c r="U52" s="11">
+        <f t="shared" si="7"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -4676,8 +4955,28 @@
       <c r="H53" s="7">
         <v>0.74292995356049096</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" s="7">
+        <v>13</v>
+      </c>
+      <c r="K53" s="7">
+        <v>1</v>
+      </c>
+      <c r="N53" s="7">
+        <f t="shared" si="6"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="P53" s="7">
+        <v>70</v>
+      </c>
+      <c r="R53" s="7">
+        <v>1</v>
+      </c>
+      <c r="U53" s="11">
+        <f t="shared" si="7"/>
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -4702,8 +5001,28 @@
       <c r="H54" s="7">
         <v>0.74292995356049096</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" s="7">
+        <v>4</v>
+      </c>
+      <c r="K54" s="7">
+        <v>0</v>
+      </c>
+      <c r="N54" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="7">
+        <v>9</v>
+      </c>
+      <c r="R54" s="7">
+        <v>0</v>
+      </c>
+      <c r="U54" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -4728,8 +5047,28 @@
       <c r="H55" s="7">
         <v>0.74292995356049096</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" s="7">
+        <v>7</v>
+      </c>
+      <c r="K55" s="7">
+        <v>1</v>
+      </c>
+      <c r="N55" s="7">
+        <f t="shared" si="6"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="P55" s="7">
+        <v>20</v>
+      </c>
+      <c r="R55" s="7">
+        <v>6</v>
+      </c>
+      <c r="U55" s="11">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -4754,8 +5093,28 @@
       <c r="H56" s="7">
         <v>0.89151594427258896</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" s="7">
+        <v>7</v>
+      </c>
+      <c r="K56" s="7">
+        <v>1</v>
+      </c>
+      <c r="N56" s="7">
+        <f t="shared" si="6"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="P56" s="7">
+        <v>16</v>
+      </c>
+      <c r="R56" s="7">
+        <v>2</v>
+      </c>
+      <c r="U56" s="11">
+        <f t="shared" si="7"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -4780,8 +5139,28 @@
       <c r="H57" s="7">
         <v>0.14858599071209799</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" s="7">
+        <v>8</v>
+      </c>
+      <c r="K57" s="7">
+        <v>1</v>
+      </c>
+      <c r="N57" s="7">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="P57" s="7">
+        <v>47</v>
+      </c>
+      <c r="R57" s="7">
+        <v>2</v>
+      </c>
+      <c r="U57" s="11">
+        <f t="shared" si="7"/>
+        <v>4.2553191489361701</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -4806,8 +5185,28 @@
       <c r="H58" s="7">
         <v>0.14858599071209799</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" s="7">
+        <v>2</v>
+      </c>
+      <c r="K58" s="7">
+        <v>1</v>
+      </c>
+      <c r="N58" s="7">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="P58" s="7">
+        <v>4</v>
+      </c>
+      <c r="R58" s="7">
+        <v>3</v>
+      </c>
+      <c r="U58" s="11">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -4832,8 +5231,28 @@
       <c r="H59" s="7">
         <v>0.14858599071209799</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" s="7">
+        <v>4</v>
+      </c>
+      <c r="K59" s="7">
+        <v>0</v>
+      </c>
+      <c r="N59" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="7">
+        <v>27</v>
+      </c>
+      <c r="R59" s="7">
+        <v>0</v>
+      </c>
+      <c r="U59" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -4858,8 +5277,28 @@
       <c r="H60" s="7">
         <v>0.74292995356049096</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" s="7">
+        <v>6</v>
+      </c>
+      <c r="K60" s="7">
+        <v>0</v>
+      </c>
+      <c r="N60" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="7">
+        <v>67</v>
+      </c>
+      <c r="R60" s="7">
+        <v>0</v>
+      </c>
+      <c r="U60" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -4884,8 +5323,28 @@
       <c r="H61" s="7">
         <v>0.74292995356049096</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" s="7">
+        <v>5</v>
+      </c>
+      <c r="K61" s="7">
+        <v>0</v>
+      </c>
+      <c r="N61" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="7">
+        <v>47</v>
+      </c>
+      <c r="R61" s="7">
+        <v>0</v>
+      </c>
+      <c r="U61" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -4910,8 +5369,28 @@
       <c r="H62" s="7">
         <v>0.74292995356049096</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" s="7">
+        <v>5</v>
+      </c>
+      <c r="K62" s="7">
+        <v>0</v>
+      </c>
+      <c r="N62" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="7">
+        <v>50</v>
+      </c>
+      <c r="R62" s="7">
+        <v>0</v>
+      </c>
+      <c r="U62" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -4936,8 +5415,28 @@
       <c r="H63" s="7">
         <v>2.85285102167229</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" s="7">
+        <v>3</v>
+      </c>
+      <c r="K63" s="7">
+        <v>0</v>
+      </c>
+      <c r="N63" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="7">
+        <v>25</v>
+      </c>
+      <c r="R63" s="7">
+        <v>0</v>
+      </c>
+      <c r="U63" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -4962,8 +5461,28 @@
       <c r="H64" s="7">
         <v>2.85285102167229</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" s="7">
+        <v>7</v>
+      </c>
+      <c r="K64" s="7">
+        <v>0</v>
+      </c>
+      <c r="N64" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="7">
+        <v>29</v>
+      </c>
+      <c r="R64" s="7">
+        <v>0</v>
+      </c>
+      <c r="U64" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -4988,8 +5507,28 @@
       <c r="H65" s="7">
         <v>2.85285102167229</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" s="7">
+        <v>6</v>
+      </c>
+      <c r="K65" s="7">
+        <v>0</v>
+      </c>
+      <c r="N65" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="7">
+        <v>12</v>
+      </c>
+      <c r="R65" s="7">
+        <v>0</v>
+      </c>
+      <c r="U65" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -5013,9 +5552,4002 @@
       </c>
       <c r="H66" s="7">
         <v>0.59434396284839297</v>
+      </c>
+      <c r="I66" s="7">
+        <v>8</v>
+      </c>
+      <c r="K66" s="7">
+        <v>0</v>
+      </c>
+      <c r="N66" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="7">
+        <v>63</v>
+      </c>
+      <c r="R66" s="7">
+        <v>0</v>
+      </c>
+      <c r="U66" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>25</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G3">
+        <v>2.04330775444641E-2</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>15</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G4">
+        <v>0.122598465266785</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>25</v>
+      </c>
+      <c r="L4">
+        <v>17</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>5.8823529411764701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>11.76470588235294</v>
+      </c>
+      <c r="L5">
+        <v>80</v>
+      </c>
+      <c r="M5">
+        <v>9</v>
+      </c>
+      <c r="N5">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.04330775444641E-2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>18.181818181818183</v>
+      </c>
+      <c r="L6">
+        <v>42</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>19.047619047619047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G7">
+        <v>0.122598465266785</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>41</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>14.634146341463413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.510826938611603</v>
+      </c>
+      <c r="H8">
+        <v>0.14858599071209799</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>18.181818181818183</v>
+      </c>
+      <c r="L8">
+        <v>36</v>
+      </c>
+      <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>22.222222222222221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.510826938611603</v>
+      </c>
+      <c r="H9">
+        <v>0.14858599071209799</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>38</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G10">
+        <v>0.510826938611603</v>
+      </c>
+      <c r="H10">
+        <v>0.14858599071209799</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>33</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>250</v>
+      </c>
+      <c r="E11">
+        <v>250</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2.5541346930580202</v>
+      </c>
+      <c r="H11">
+        <v>0.74292995356049096</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>77</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>250</v>
+      </c>
+      <c r="E12">
+        <v>250</v>
+      </c>
+      <c r="F12">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G12">
+        <v>2.5541346930580202</v>
+      </c>
+      <c r="H12">
+        <v>0.74292995356049096</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>48</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>250</v>
+      </c>
+      <c r="E13">
+        <v>250</v>
+      </c>
+      <c r="F13">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G13">
+        <v>2.5541346930580202</v>
+      </c>
+      <c r="H13">
+        <v>0.74292995356049096</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>11.111111111111111</v>
+      </c>
+      <c r="L13">
+        <v>43</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>11.627906976744185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>70</v>
+      </c>
+      <c r="D14">
+        <v>293</v>
+      </c>
+      <c r="E14">
+        <v>300</v>
+      </c>
+      <c r="F14">
+        <v>3.37938568868968</v>
+      </c>
+      <c r="G14">
+        <v>2.9934458602639999</v>
+      </c>
+      <c r="H14">
+        <v>0.89151594427258896</v>
+      </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>62</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>25</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G16">
+        <v>2.04330775444641E-2</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>24</v>
+      </c>
+      <c r="M16">
+        <v>12</v>
+      </c>
+      <c r="N16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G17">
+        <v>0.122598465266785</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>19</v>
+      </c>
+      <c r="M17">
+        <v>8</v>
+      </c>
+      <c r="N17">
+        <v>42.105263157894733</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>-25</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>-0.255413469305802</v>
+      </c>
+      <c r="H18">
+        <v>0.14858599071209799</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>20</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>-25</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G19">
+        <v>-0.255413469305802</v>
+      </c>
+      <c r="H19">
+        <v>0.14858599071209799</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>50</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>-25</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G20">
+        <v>-0.255413469305802</v>
+      </c>
+      <c r="H20">
+        <v>0.14858599071209799</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>22</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>250</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0.74292995356049096</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>55</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>250</v>
+      </c>
+      <c r="F22">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G22">
+        <v>2.04330775444641E-2</v>
+      </c>
+      <c r="H22">
+        <v>0.74292995356049096</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>37</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>250</v>
+      </c>
+      <c r="F23">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G23">
+        <v>0.122598465266785</v>
+      </c>
+      <c r="H23">
+        <v>0.74292995356049096</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>48</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <v>960</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0.255413469305802</v>
+      </c>
+      <c r="H24">
+        <v>2.85285102167229</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>24</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>960</v>
+      </c>
+      <c r="F25">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G25">
+        <v>0.255413469305802</v>
+      </c>
+      <c r="H25">
+        <v>2.85285102167229</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>26</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>960</v>
+      </c>
+      <c r="F26">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G26">
+        <v>0.255413469305802</v>
+      </c>
+      <c r="H26">
+        <v>2.85285102167229</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>24</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27">
+        <v>70</v>
+      </c>
+      <c r="D27">
+        <v>70</v>
+      </c>
+      <c r="E27">
+        <v>200</v>
+      </c>
+      <c r="F27">
+        <v>3.37938568868968</v>
+      </c>
+      <c r="G27">
+        <v>0.71515771405624495</v>
+      </c>
+      <c r="H27">
+        <v>0.59434396284839297</v>
+      </c>
+      <c r="I27">
+        <v>9</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>132</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>19</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L28">
+        <v>70</v>
+      </c>
+      <c r="M28">
+        <v>25</v>
+      </c>
+      <c r="N28">
+        <v>35.714285714285715</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G29">
+        <v>2.04330775444641E-2</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>12</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="L29">
+        <v>50</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G30">
+        <v>0.122598465266785</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>17</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>50</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0.143031542811249</v>
+      </c>
+      <c r="H31">
+        <v>0.14858599071209799</v>
+      </c>
+      <c r="I31">
+        <v>15</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="L31">
+        <v>95</v>
+      </c>
+      <c r="M31">
+        <v>24</v>
+      </c>
+      <c r="N31">
+        <v>25.263157894736842</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>50</v>
+      </c>
+      <c r="F32">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G32">
+        <v>0.122598465266785</v>
+      </c>
+      <c r="H32">
+        <v>0.14858599071209799</v>
+      </c>
+      <c r="I32">
+        <v>14</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>21.428571428571427</v>
+      </c>
+      <c r="L32">
+        <v>61</v>
+      </c>
+      <c r="M32">
+        <v>8</v>
+      </c>
+      <c r="N32">
+        <v>13.114754098360656</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>50</v>
+      </c>
+      <c r="F33">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G33">
+        <v>2.04330775444641E-2</v>
+      </c>
+      <c r="H33">
+        <v>0.14858599071209799</v>
+      </c>
+      <c r="I33">
+        <v>11</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>18.181818181818183</v>
+      </c>
+      <c r="L33">
+        <v>52</v>
+      </c>
+      <c r="M33">
+        <v>4</v>
+      </c>
+      <c r="N33">
+        <v>7.6923076923076925</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>250</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0.74292995356049096</v>
+      </c>
+      <c r="I34">
+        <v>21</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>19.047619047619047</v>
+      </c>
+      <c r="L34">
+        <v>79</v>
+      </c>
+      <c r="M34">
+        <v>20</v>
+      </c>
+      <c r="N34">
+        <v>25.316455696202532</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>250</v>
+      </c>
+      <c r="F35">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G35">
+        <v>2.04330775444641E-2</v>
+      </c>
+      <c r="H35">
+        <v>0.74292995356049096</v>
+      </c>
+      <c r="I35">
+        <v>9</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="L35">
+        <v>43</v>
+      </c>
+      <c r="M35">
+        <v>12</v>
+      </c>
+      <c r="N35">
+        <v>27.906976744186046</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>250</v>
+      </c>
+      <c r="F36">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G36">
+        <v>0.122598465266785</v>
+      </c>
+      <c r="H36">
+        <v>0.74292995356049096</v>
+      </c>
+      <c r="I36">
+        <v>7</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>28.571428571428569</v>
+      </c>
+      <c r="L36">
+        <v>18</v>
+      </c>
+      <c r="M36">
+        <v>7</v>
+      </c>
+      <c r="N36">
+        <v>38.888888888888893</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>80</v>
+      </c>
+      <c r="E37">
+        <v>400</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0.81732310177856504</v>
+      </c>
+      <c r="H37">
+        <v>1.1886879256967899</v>
+      </c>
+      <c r="I37">
+        <v>20</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>10</v>
+      </c>
+      <c r="L37">
+        <v>110</v>
+      </c>
+      <c r="M37">
+        <v>27</v>
+      </c>
+      <c r="N37">
+        <v>24.545454545454547</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>78</v>
+      </c>
+      <c r="E38">
+        <v>400</v>
+      </c>
+      <c r="F38">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G38">
+        <v>0.79689002423410105</v>
+      </c>
+      <c r="H38">
+        <v>1.1886879256967899</v>
+      </c>
+      <c r="I38">
+        <v>11</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>18.181818181818183</v>
+      </c>
+      <c r="L38">
+        <v>76</v>
+      </c>
+      <c r="M38">
+        <v>20</v>
+      </c>
+      <c r="N38">
+        <v>26.315789473684209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>68</v>
+      </c>
+      <c r="E39">
+        <v>400</v>
+      </c>
+      <c r="F39">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G39">
+        <v>0.69472463651178096</v>
+      </c>
+      <c r="H39">
+        <v>1.1886879256967899</v>
+      </c>
+      <c r="I39">
+        <v>14</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>14.285714285714285</v>
+      </c>
+      <c r="L39">
+        <v>80</v>
+      </c>
+      <c r="M39">
+        <v>16</v>
+      </c>
+      <c r="N39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40">
+        <v>70</v>
+      </c>
+      <c r="D40">
+        <v>124</v>
+      </c>
+      <c r="E40">
+        <v>50</v>
+      </c>
+      <c r="F40">
+        <v>3.37938568868968</v>
+      </c>
+      <c r="G40">
+        <v>1.2668508077567799</v>
+      </c>
+      <c r="H40">
+        <v>0.14858599071209799</v>
+      </c>
+      <c r="I40">
+        <v>13</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>15.384615384615385</v>
+      </c>
+      <c r="L40">
+        <v>61</v>
+      </c>
+      <c r="M40">
+        <v>14</v>
+      </c>
+      <c r="N40">
+        <v>22.950819672131146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>9</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>40</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>22</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>7</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>25</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>15</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="L44">
+        <v>88</v>
+      </c>
+      <c r="M44">
+        <v>9</v>
+      </c>
+      <c r="N44">
+        <v>10.227272727272728</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G45">
+        <v>2.04330775444641E-2</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>10</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>10</v>
+      </c>
+      <c r="L45">
+        <v>48</v>
+      </c>
+      <c r="M45">
+        <v>12</v>
+      </c>
+      <c r="N45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G46">
+        <v>0.122598465266785</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>12</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="L46">
+        <v>56</v>
+      </c>
+      <c r="M46">
+        <v>8</v>
+      </c>
+      <c r="N46">
+        <v>14.285714285714285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>12</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>67</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G48">
+        <v>2.04330775444641E-2</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>11</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="L48">
+        <v>35</v>
+      </c>
+      <c r="M48">
+        <v>6</v>
+      </c>
+      <c r="N48">
+        <v>17.142857142857142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G49">
+        <v>0.122598465266785</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>11</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="L49">
+        <v>35</v>
+      </c>
+      <c r="M49">
+        <v>6</v>
+      </c>
+      <c r="N49">
+        <v>17.142857142857142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>50</v>
+      </c>
+      <c r="E50">
+        <v>50</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0.510826938611603</v>
+      </c>
+      <c r="H50">
+        <v>0.14858599071209799</v>
+      </c>
+      <c r="I50">
+        <v>9</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>70</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <v>50</v>
+      </c>
+      <c r="F51">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G51">
+        <v>0.510826938611603</v>
+      </c>
+      <c r="H51">
+        <v>0.14858599071209799</v>
+      </c>
+      <c r="I51">
+        <v>11</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="L51">
+        <v>51</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1.9607843137254901</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>12</v>
+      </c>
+      <c r="D52">
+        <v>50</v>
+      </c>
+      <c r="E52">
+        <v>50</v>
+      </c>
+      <c r="F52">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G52">
+        <v>0.510826938611603</v>
+      </c>
+      <c r="H52">
+        <v>0.14858599071209799</v>
+      </c>
+      <c r="I52">
+        <v>9</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>11.111111111111111</v>
+      </c>
+      <c r="L52">
+        <v>48</v>
+      </c>
+      <c r="M52">
+        <v>6</v>
+      </c>
+      <c r="N52">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>250</v>
+      </c>
+      <c r="E53">
+        <v>250</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>2.5541346930580202</v>
+      </c>
+      <c r="H53">
+        <v>0.74292995356049096</v>
+      </c>
+      <c r="I53">
+        <v>13</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="L53">
+        <v>70</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>250</v>
+      </c>
+      <c r="E54">
+        <v>250</v>
+      </c>
+      <c r="F54">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G54">
+        <v>2.5541346930580202</v>
+      </c>
+      <c r="H54">
+        <v>0.74292995356049096</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>9</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55">
+        <v>12</v>
+      </c>
+      <c r="D55">
+        <v>250</v>
+      </c>
+      <c r="E55">
+        <v>250</v>
+      </c>
+      <c r="F55">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G55">
+        <v>2.5541346930580202</v>
+      </c>
+      <c r="H55">
+        <v>0.74292995356049096</v>
+      </c>
+      <c r="I55">
+        <v>7</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>14.285714285714285</v>
+      </c>
+      <c r="L55">
+        <v>20</v>
+      </c>
+      <c r="M55">
+        <v>6</v>
+      </c>
+      <c r="N55">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56">
+        <v>70</v>
+      </c>
+      <c r="D56">
+        <v>293</v>
+      </c>
+      <c r="E56">
+        <v>300</v>
+      </c>
+      <c r="F56">
+        <v>3.37938568868968</v>
+      </c>
+      <c r="G56">
+        <v>2.9934458602639999</v>
+      </c>
+      <c r="H56">
+        <v>0.89151594427258896</v>
+      </c>
+      <c r="I56">
+        <v>7</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>14.285714285714285</v>
+      </c>
+      <c r="L56">
+        <v>16</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>-25</v>
+      </c>
+      <c r="E57">
+        <v>50</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>-0.255413469305802</v>
+      </c>
+      <c r="H57">
+        <v>0.14858599071209799</v>
+      </c>
+      <c r="I57">
+        <v>8</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>12.5</v>
+      </c>
+      <c r="L57">
+        <v>47</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <v>4.2553191489361701</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>-25</v>
+      </c>
+      <c r="E58">
+        <v>50</v>
+      </c>
+      <c r="F58">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G58">
+        <v>-0.255413469305802</v>
+      </c>
+      <c r="H58">
+        <v>0.14858599071209799</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>50</v>
+      </c>
+      <c r="L58">
+        <v>4</v>
+      </c>
+      <c r="M58">
+        <v>3</v>
+      </c>
+      <c r="N58">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>-25</v>
+      </c>
+      <c r="E59">
+        <v>50</v>
+      </c>
+      <c r="F59">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G59">
+        <v>-0.255413469305802</v>
+      </c>
+      <c r="H59">
+        <v>0.14858599071209799</v>
+      </c>
+      <c r="I59">
+        <v>4</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>27</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>250</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0.74292995356049096</v>
+      </c>
+      <c r="I60">
+        <v>6</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>67</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>250</v>
+      </c>
+      <c r="F61">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G61">
+        <v>2.04330775444641E-2</v>
+      </c>
+      <c r="H61">
+        <v>0.74292995356049096</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>47</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62">
+        <v>12</v>
+      </c>
+      <c r="D62">
+        <v>12</v>
+      </c>
+      <c r="E62">
+        <v>250</v>
+      </c>
+      <c r="F62">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G62">
+        <v>0.122598465266785</v>
+      </c>
+      <c r="H62">
+        <v>0.74292995356049096</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>50</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>25</v>
+      </c>
+      <c r="E63">
+        <v>960</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0.255413469305802</v>
+      </c>
+      <c r="H63">
+        <v>2.85285102167229</v>
+      </c>
+      <c r="I63">
+        <v>3</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>25</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>25</v>
+      </c>
+      <c r="E64">
+        <v>960</v>
+      </c>
+      <c r="F64">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G64">
+        <v>0.255413469305802</v>
+      </c>
+      <c r="H64">
+        <v>2.85285102167229</v>
+      </c>
+      <c r="I64">
+        <v>7</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>29</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65">
+        <v>12</v>
+      </c>
+      <c r="D65">
+        <v>25</v>
+      </c>
+      <c r="E65">
+        <v>960</v>
+      </c>
+      <c r="F65">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G65">
+        <v>0.255413469305802</v>
+      </c>
+      <c r="H65">
+        <v>2.85285102167229</v>
+      </c>
+      <c r="I65">
+        <v>6</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>12</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66">
+        <v>70</v>
+      </c>
+      <c r="D66">
+        <v>70</v>
+      </c>
+      <c r="E66">
+        <v>200</v>
+      </c>
+      <c r="F66">
+        <v>3.37938568868968</v>
+      </c>
+      <c r="G66">
+        <v>0.71515771405624495</v>
+      </c>
+      <c r="H66">
+        <v>0.59434396284839297</v>
+      </c>
+      <c r="I66">
+        <v>8</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>63</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L27" sqref="A1:L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="10" width="18.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G3">
+        <v>2.04330775444641E-2</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="J3">
+        <v>-3</v>
+      </c>
+      <c r="K3">
+        <v>-20</v>
+      </c>
+      <c r="L3">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G4">
+        <v>0.122598465266785</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+      <c r="K4">
+        <v>-25</v>
+      </c>
+      <c r="L4">
+        <v>-5.8823529411764701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>-5.0980392156862733</v>
+      </c>
+      <c r="L5">
+        <v>-1.0227272727272716</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.04330775444641E-2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>-8.1818181818181834</v>
+      </c>
+      <c r="L6">
+        <v>5.9523809523809526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G7">
+        <v>0.122598465266785</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>6.6666666666666643</v>
+      </c>
+      <c r="L7">
+        <v>-0.34843205574912872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.510826938611603</v>
+      </c>
+      <c r="H8">
+        <v>0.14858599071209799</v>
+      </c>
+      <c r="I8">
+        <v>-2</v>
+      </c>
+      <c r="J8">
+        <v>-8</v>
+      </c>
+      <c r="K8">
+        <v>-18.181818181818183</v>
+      </c>
+      <c r="L8">
+        <v>-22.222222222222221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.510826938611603</v>
+      </c>
+      <c r="H9">
+        <v>0.14858599071209799</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="L9">
+        <v>17.142857142857142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G10">
+        <v>0.510826938611603</v>
+      </c>
+      <c r="H10">
+        <v>0.14858599071209799</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="L10">
+        <v>17.142857142857142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>250</v>
+      </c>
+      <c r="E11">
+        <v>250</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2.5541346930580202</v>
+      </c>
+      <c r="H11">
+        <v>0.74292995356049096</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>250</v>
+      </c>
+      <c r="E12">
+        <v>250</v>
+      </c>
+      <c r="F12">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G12">
+        <v>2.5541346930580202</v>
+      </c>
+      <c r="H12">
+        <v>0.74292995356049096</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="L12">
+        <v>1.9607843137254901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>250</v>
+      </c>
+      <c r="E13">
+        <v>250</v>
+      </c>
+      <c r="F13">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G13">
+        <v>2.5541346930580202</v>
+      </c>
+      <c r="H13">
+        <v>0.74292995356049096</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>70</v>
+      </c>
+      <c r="D14">
+        <v>293</v>
+      </c>
+      <c r="E14">
+        <v>300</v>
+      </c>
+      <c r="F14">
+        <v>3.37938568868968</v>
+      </c>
+      <c r="G14">
+        <v>2.9934458602639999</v>
+      </c>
+      <c r="H14">
+        <v>0.89151594427258896</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="L14">
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G16">
+        <v>2.04330775444641E-2</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>-6</v>
+      </c>
+      <c r="K16">
+        <v>14.285714285714285</v>
+      </c>
+      <c r="L16">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G17">
+        <v>0.122598465266785</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>-6</v>
+      </c>
+      <c r="K17">
+        <v>14.285714285714285</v>
+      </c>
+      <c r="L17">
+        <v>-29.605263157894733</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>-25</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>-0.255413469305802</v>
+      </c>
+      <c r="H18">
+        <v>0.14858599071209799</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>12.5</v>
+      </c>
+      <c r="L18">
+        <v>4.2553191489361701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>-25</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G19">
+        <v>-0.255413469305802</v>
+      </c>
+      <c r="H19">
+        <v>0.14858599071209799</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>-25</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G20">
+        <v>-0.255413469305802</v>
+      </c>
+      <c r="H20">
+        <v>0.14858599071209799</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>250</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0.74292995356049096</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>250</v>
+      </c>
+      <c r="F22">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G22">
+        <v>2.04330775444641E-2</v>
+      </c>
+      <c r="H22">
+        <v>0.74292995356049096</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>250</v>
+      </c>
+      <c r="F23">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G23">
+        <v>0.122598465266785</v>
+      </c>
+      <c r="H23">
+        <v>0.74292995356049096</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <v>960</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0.255413469305802</v>
+      </c>
+      <c r="H24">
+        <v>2.85285102167229</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>960</v>
+      </c>
+      <c r="F25">
+        <v>9.6553876819705106E-2</v>
+      </c>
+      <c r="G25">
+        <v>0.255413469305802</v>
+      </c>
+      <c r="H25">
+        <v>2.85285102167229</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>960</v>
+      </c>
+      <c r="F26">
+        <v>0.57932326091823005</v>
+      </c>
+      <c r="G26">
+        <v>0.255413469305802</v>
+      </c>
+      <c r="H26">
+        <v>2.85285102167229</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>70</v>
+      </c>
+      <c r="D27">
+        <v>70</v>
+      </c>
+      <c r="E27">
+        <v>200</v>
+      </c>
+      <c r="F27">
+        <v>3.37938568868968</v>
+      </c>
+      <c r="G27">
+        <v>0.71515771405624495</v>
+      </c>
+      <c r="H27">
+        <v>0.59434396284839297</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>